--- a/target/test-classes/com/riddhiHousingSociety/testData/TestEditContent.xlsx
+++ b/target/test-classes/com/riddhiHousingSociety/testData/TestEditContent.xlsx
@@ -39,9 +39,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>06/10/2023</t>
-  </si>
-  <si>
     <t>Section_Name</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>https://www.wikipedia.org/</t>
+  </si>
+  <si>
+    <t>06/15/2023</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -449,13 +449,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -469,31 +469,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>8000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
